--- a/ControversialResultsEdited.xlsx
+++ b/ControversialResultsEdited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland Leferink\PycharmProjects\scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799F749-F4A7-403D-9939-9AF45079DFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49675963-A017-4905-9310-D44FC2DBE22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,297 +20,561 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.schreeuwomleven.nl', 'https://www.gezondheidsnet.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.schreeuwomleven.nl', 'https://www.gezondheidsnet.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.schreeuwomleven.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.schreeuwomleven.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl']</t>
-  </si>
-  <si>
-    <t>['https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'houvanarnhem.nl', 'https://www.nu.nl', 'https://nos.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.allesoverseks.be', 'https://www.gezondheidsnet.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://ec.europa.eu','https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.knaw.nl', 'https://www.lne.be', 'www.klimaat.be']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.ad.nl', 'https://www.nrc.nl', 'https://www.trouw.nl', 'https://www.omroepbrabant.nl', 'https://www.rtlnieuws.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'houvanarnhem.nl', 'https://www.ed.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.thuisvaccinatie.nl', 'https://www.nrc.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.parool.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.amerika.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl', 'ind.nl', 'https://www.trouw.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nu.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://www.destentor.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.gezondheidsplein.nl', 'https://www.trouw.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.ad.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://milieudefensie.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://www.destentor.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.volkskrant.nl', 'https://www.thuisvaccinatie.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.amnesty.nl', 'https://europadecentraal.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nu.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl', 'https://www.nrc.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.rijksoverheid.nl', 'https://decorrespondent.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://www.rijksoverheid.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.rijksoverheid.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl', 'ind.nl', 'https://europadecentraal.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://www.amnesty.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://decorrespondent.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://www.amnesty.nl', 'https://europadecentraal.nl', 'https://www.socialevraagstukken.nl', 'https://decorrespondent.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.rijksoverheid.nl', 'https://www.volkskrant.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'https://jalta.nl', 'https://www.amnesty.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.europa-nu.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.parool.nl', 'https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.rijksoverheid.nl', 'https://www.volkskrant.nl', 'https://decorrespondent.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.europa-nu.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.rijksoverheid.nl', 'https://europadecentraal.nl', 'https://www.volkskrant.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.rijksoverheid.nl', 'https://www.volkskrant.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'https://www.amnesty.nl', 'https://www.europa-nu.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.rijksoverheid.nl', 'https://www.volkskrant.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'https://www.europa-nu.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.rijksoverheid.nl', 'https://www.volkskrant.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl', 'https://www.nd.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://joop.bnnvara.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://www.rtlnieuws.nl', 'https://eenvandaag.avrotros.nl', 'https://www.ed.nl', 'houvanarnhem.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.omroepbrabant.nl', 'https://www.nu.nl', 'https://www.ed.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl', 'https://www.destentor.nl', 'https://www.ed.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.omroepbrabant.nl', 'https://www.destentor.nl', 'https://joop.bnnvara.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://nl.wikipedia.org', 'https://www.nrc.nl', 'houvanarnhem.nl', 'https://eenvandaag.avrotros.nl', 'https://eenvandaag.avrotros.nl', 'https://nos.nl', 'https://www.ed.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://nl.wikipedia.org', 'https://www.nrc.nl', 'houvanarnhem.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl', 'https://joop.bnnvara.nl', 'https://nos.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://nl.wikipedia.org', 'https://www.nrc.nl', 'https://joop.bnnvara.nl', 'https://www.ed.nl', 'https://eenvandaag.avrotros.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nrc.nl', 'https://nl.wikipedia.org', 'houvanarnhem.nl', 'https://eenvandaag.avrotros.nl', 'https://eenvandaag.avrotros.nl', 'https://joop.bnnvara.nl', 'https://www.nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nrc.nl', 'https://nl.wikipedia.org', 'houvanarnhem.nl', 'https://eenvandaag.avrotros.nl', 'https://joop.bnnvara.nl', 'https://nos.nl', 'https://www.nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://nl.wikipedia.org', 'https://www.nrc.nl', 'houvanarnhem.nl', 'https://eenvandaag.avrotros.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl', 'https://nos.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://nl.wikipedia.org', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'houvanarnhem.nl', 'https://nos.nl', 'https://nos.nl', 'https://www.nu.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://www.klimaat.be', 'https://ec.europa.eu', 'https://www.hier.nu', 'https://www.knaw.nl', 'https://www.ce.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://milieudefensie.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.hier.nu', 'https://www.clo.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.urgenda.nl', 'https://milieudefensie.nl', 'https://www.climategate.nl', 'https://www.hier.nu', 'https://www.clo.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://milieudefensie.nl', 'https://www.hier.nu']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.urgenda.nl', 'https://www.klimaat.be', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://www.hier.nu', 'https://milieudefensie.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.urgenda.nl', 'https://www.klimaat.be', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.hier.nu']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.urgenda.nl', 'https://www.klimaat.be', 'https://milieudefensie.nl', 'https://www.climategate.nl', 'https://www.hier.nu', 'https://www.clo.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'Sense.info', 'https://sense.info']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.allesoverseks.be']</t>
-  </si>
-  <si>
-    <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://www.klimaat.be', 'https://ec.europa.eu', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.lne.be', 'www.klimaat.be']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.ce.nl', 'https://www.hier.nu', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.lne.be', 'www.klimaat.be']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.allesoverseks.be', 'https://www.allesoverseks.be']</t>
-  </si>
-  <si>
-    <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.lne.be']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.nieuwetijds-kindercoach.nl', 'https://www.rivm.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.volkskrant.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://www.ggdreisvaccinaties.nl', 'https://dekennisvannu.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://dekennisvannu.nl', 'https://www.ggdreisvaccinaties.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://dekennisvannu.nl', 'https://www.volkskrant.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.rtlnieuws.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.nrc.nl', 'https://www.ggdreisvaccinaties.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.nrc.nl', 'https://www.volkskrant.nl', 'https://dekennisvannu.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.volkskrant.nl', 'https://mens-en-gezondheid.infonu.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl', 'https://www.volkskrant.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.nrc.nl', 'https://www.ggdreisvaccinaties.nl', 'https://www.volkskrant.nl']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.rtlnieuws.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.ggdreisvaccinaties.nl', 'https://www.volkskrant.nl']</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>slecht resultaat</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl/', 'https://www.bloemenhove.nl/', 'https://www.bloemenhove.nl/', 'https://www.thuisarts.nl/', 'https://www.trouw.nl/', 'https://www.gezondheidsplein.nl/', 'https://fiom.nl/', 'https://www.telegraaf.nl/', 'https://www.gezondheidsnet.nl/', 'https://www.schreeuwomleven.nl/']</t>
-  </si>
-  <si>
-    <t>['https://www.rijksoverheid.nl/', 'https://www.wur.nl/', 'https://www.ce.nl/', 'https://ec.europa.eu/', 'https://www.klimaat.be/', 'https://www.hier.nu/', 'https://www.urgenda.nl/', 'https://www.climategate.nl/', 'https://milieudefensie.nl/', 'https://www.knaw.nl/']</t>
-  </si>
-  <si>
-    <t>['https://www.ad.nl/', 'https://www.volkskrant.nl/', 'https://www.trouw.nl/', 'https://www.nu.nl/', 'https://www.lc.nl/', 'https://nos.nl/', 'https://eenvandaag.avrotros.nl/', 'https://www.nrc.nl/', 'https://www.omroepbrabant.nl/']</t>
-  </si>
-  <si>
-    <t>['https://rijksvaccinatieprogramma.nl/', 'https://www.nvkp.nl/', 'https://www.wanttoknow.nl/', 'https://stichtingvaccinvrij.nl/', 'https://www.umcutrecht.nl/', 'https://www.thuisvaccinatie.nl/', 'https://www.volkskrant.nl/', 'https://www.scientias.nl/', 'https://dekennisvannu.nl/', 'https://www.nrc.nl/']</t>
-  </si>
-  <si>
-    <t>['https://nl.wikipedia.org/', 'https://www.volkskrant.nl/', 'https://www.politie.nl/', 'https://europadecentraal.nl/', 'https://www.amnesty.nl/', 'https://decorrespondent.nl/', 'https://www.rijksoverheid.nl/', 'https://jalta.nl/', 'https://www.socialevraagstukken.nl/', 'https://www.europa-nu.nl/']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="185">
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'trouw.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'fiom.nl', 'telegraaf.nl', 'allesoverseks.be', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'ce.nl', 'climategate.nl', 'urgenda.nl', 'knaw.nl', 'lne.be']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'nrc.nl', 'trouw.nl', 'omroepbrabant.nl', 'rtlnieuws.nl', 'volkskrant.nl', 'volkskrant.nl', 'houvanarnhem.nl', 'ed.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'scientias.nl', 'umcutrecht.nl', 'volkskrant.nl', 'volkskrant.nl', 'thuisvaccinatie.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'parool.nl', 'volkskrant.nl', 'volkskrant.nl', 'amerika.nl', 'europa-nu.nl', 'socialevraagstukken.nl', 'ind.nl', 'trouw.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'gezondheidsnet.nl', 'schreeuwomleven.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'urgenda.nl', 'climategate.nl', 'milieudefensie.nl', 'knaw.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'lc.nl', 'nu.nl', 'nos.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'omroepbrabant.nl', 'destentor.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'umcutrecht.nl', 'volkskrant.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'nrc.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'europadecentraal.nl', 'amnesty.nl', 'decorrespondent.nl', 'rijksoverheid.nl', 'jalta.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'gezondheidsplein.nl', 'trouw.nl', 'thuisarts.nl', 'fiom.nl', 'telegraaf.nl', 'telegraaf.nl', 'ad.nl']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'rijksoverheid.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'ce.nl', 'knaw.nl', 'climategate.nl', 'urgenda.nl', 'milieudefensie.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'lc.nl', 'nos.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'omroepbrabant.nl', 'destentor.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'volkskrant.nl', 'thuisvaccinatie.nl', 'nrc.nl', 'scientias.nl', 'umcutrecht.nl', 'mens-en-gezondheid.infonu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'volkskrant.nl', 'amnesty.nl', 'europadecentraal.nl', 'jalta.nl', 'decorrespondent.nl', 'rijksoverheid.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'lc.nl', 'nu.nl', 'nos.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'omroepbrabant.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'umcutrecht.nl', 'thuisvaccinatie.nl', 'volkskrant.nl', 'scientias.nl', 'dekennisvannu.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'europadecentraal.nl', 'amnesty.nl', 'rijksoverheid.nl', 'decorrespondent.nl', 'jalta.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'trouw.nl', 'fiom.nl', 'telegraaf.nl', 'allesoverseks.be', 'allesoverseks.be']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'rijksoverheid.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'ce.nl', 'knaw.nl', 'climategate.nl', 'urgenda.nl', 'lne.be']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'lc.nl', 'nos.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'omroepbrabant.nl', 'joop.bnnvara.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'volkskrant.nl', 'scientias.nl', 'nrc.nl', 'umcutrecht.nl', 'mens-en-gezondheid.infonu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'volkskrant.nl', 'amnesty.nl', 'jalta.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'rijksoverheid.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'lc.nl', 'nos.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'omroepbrabant.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'umcutrecht.nl', 'thuisvaccinatie.nl', 'volkskrant.nl', 'nrc.nl', 'scientias.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'europadecentraal.nl', 'amnesty.nl', 'rijksoverheid.nl', 'jalta.nl', 'decorrespondent.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'urgenda.nl', 'climategate.nl', 'climategate.nl', 'milieudefensie.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'umcutrecht.nl', 'volkskrant.nl', 'nrc.nl', 'nieuwetijds-kindercoach.nl', 'rivm.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'europadecentraal.nl', 'amnesty.nl', 'jalta.nl', 'decorrespondent.nl', 'rijksoverheid.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'gezondheidsnet.nl', 'schreeuwomleven.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'urgenda.nl', 'climategate.nl', 'milieudefensie.nl', 'knaw.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'lc.nl', 'nos.nl', 'eenvandaag.avrotros.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'schreeuwomleven.nl', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'umcutrecht.nl', 'volkskrant.nl', 'scientias.nl', 'nrc.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'europadecentraal.nl', 'amnesty.nl', 'decorrespondent.nl', 'rijksoverheid.nl', 'jalta.nl', 'europa-nu.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'telegraaf.nl', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'umcutrecht.nl', 'volkskrant.nl', 'nrc.nl', 'scientias.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'europadecentraal.nl', 'amnesty.nl', 'jalta.nl', 'rijksoverheid.nl', 'decorrespondent.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'trouw.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'fiom.nl', 'allesoverseks.be', 'telegraaf.nl', 'sense.info']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'rijksoverheid.nl', 'klimaat.be', 'ec.europa.eu', 'hier.nu', 'knaw.nl', 'ce.nl', 'climategate.nl', 'urgenda.nl', 'milieudefensie.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'volkskrant.nl', 'volkskrant.nl', 'nrc.nl', 'scientias.nl', 'umcutrecht.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'volkskrant.nl', 'europadecentraal.nl', 'amnesty.nl', 'jalta.nl', 'decorrespondent.nl', 'socialevraagstukken.nl', 'rijksoverheid.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'europadecentraal.nl', 'amnesty.nl', 'jalta.nl', 'decorrespondent.nl', 'rijksoverheid.nl', 'europa-nu.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'trouw.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'fiom.nl', 'allesoverseks.be', 'telegraaf.nl', 'telegraaf.nl']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'rijksoverheid.nl', 'klimaat.be', 'ec.europa.eu', 'hier.nu', 'ce.nl', 'knaw.nl', 'climategate.nl', 'urgenda.nl', 'lne.be']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'lc.nl', 'nrc.nl', 'rtlnieuws.nl', 'eenvandaag.avrotros.nl', 'ed.nl', 'houvanarnhem.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'nrc.nl', 'volkskrant.nl', 'umcutrecht.nl', 'mens-en-gezondheid.infonu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'volkskrant.nl', 'politie.nl', 'jalta.nl', 'decorrespondent.nl', 'rijksoverheid.nl', 'socialevraagstukken.nl', 'europa-nu.nl', 'ind.nl', 'europadecentraal.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'klimaat.be', 'urgenda.nl', 'climategate.nl', 'milieudefensie.nl', 'hier.nu', 'clo.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'lc.nl', 'nrc.nl', 'eenvandaag.avrotros.nl', 'omroepbrabant.nl', 'nu.nl', 'ed.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'nrc.nl', 'umcutrecht.nl', 'ggdreisvaccinaties.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'volkskrant.nl', 'rijksoverheid.nl', 'jalta.nl', 'europa-nu.nl', 'amnesty.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'telegraaf.nl', 'schreeuwomleven.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'klimaat.be', 'urgenda.nl', 'milieudefensie.nl', 'climategate.nl', 'hier.nu', 'clo.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'lc.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'nu.nl', 'omroepbrabant.nl', 'destentor.nl', 'joop.bnnvara.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'nrc.nl', 'umcutrecht.nl', 'dekennisvannu.nl', 'ggdreisvaccinaties.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'volkskrant.nl', 'rijksoverheid.nl', 'jalta.nl', 'europa-nu.nl', 'amnesty.nl', 'europadecentraal.nl', 'socialevraagstukken.nl', 'decorrespondent.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'schreeuwomleven.nl', 'telegraaf.nl', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'klimaat.be', 'climategate.nl', 'climategate.nl', 'urgenda.nl', 'milieudefensie.nl', 'hier.nu']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nl.wikipedia.org', 'nrc.nl', 'houvanarnhem.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nos.nl', 'ed.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'nrc.nl', 'umcutrecht.nl', 'dekennisvannu.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'rijksoverheid.nl', 'volkskrant.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'jalta.nl', 'amnesty.nl', 'europa-nu.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'urgenda.nl', 'klimaat.be', 'climategate.nl', 'climategate.nl', 'hier.nu', 'milieudefensie.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nl.wikipedia.org', 'nrc.nl', 'houvanarnhem.nl', 'eenvandaag.avrotros.nl', 'nu.nl', 'joop.bnnvara.nl', 'nos.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'rtlnieuws.nl', 'scientias.nl', 'umcutrecht.nl', 'nrc.nl', 'ggdreisvaccinaties.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'europadecentraal.nl', 'europa-nu.nl', 'volkskrant.nl', 'volkskrant.nl', 'parool.nl', 'rijksoverheid.nl', 'rijksoverheid.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'trouw.nl', 'fiom.nl', 'telegraaf.nl', 'telegraaf.nl', 'allesoverseks.be']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ec.europa.eu', 'klimaat.be', 'ce.nl', 'hier.nu', 'knaw.nl', 'climategate.nl', 'urgenda.nl', 'lne.be']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nl.wikipedia.org', 'nrc.nl', 'joop.bnnvara.nl', 'ed.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'volkskrant.nl', 'mens-en-gezondheid.infonu.nl', 'nrc.nl', 'umcutrecht.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'rijksoverheid.nl', 'europadecentraal.nl', 'volkskrant.nl', 'amnesty.nl', 'decorrespondent.nl', 'jalta.nl', 'socialevraagstukken.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'urgenda.nl', 'klimaat.be', 'climategate.nl', 'climategate.nl', 'milieudefensie.nl', 'hier.nu']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nrc.nl', 'nl.wikipedia.org', 'houvanarnhem.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'joop.bnnvara.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nrc.nl', 'dekennisvannu.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'rijksoverheid.nl', 'volkskrant.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'amnesty.nl', 'europa-nu.nl', 'jalta.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nrc.nl', 'nl.wikipedia.org', 'houvanarnhem.nl', 'eenvandaag.avrotros.nl', 'joop.bnnvara.nl', 'nos.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nrc.nl', 'ggdreisvaccinaties.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nl.wikipedia.org', 'nrc.nl', 'houvanarnhem.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nu.nl', 'nos.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'rijksoverheid.nl', 'volkskrant.nl', 'europadecentraal.nl', 'amnesty.nl', 'decorrespondent.nl', 'europa-nu.nl', 'jalta.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'urgenda.nl', 'klimaat.be', 'milieudefensie.nl', 'climategate.nl', 'hier.nu', 'clo.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nl.wikipedia.org', 'nrc.nl', 'eenvandaag.avrotros.nl', 'houvanarnhem.nl', 'nos.nl', 'nos.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'rtlnieuws.nl', 'scientias.nl', 'umcutrecht.nl', 'ggdreisvaccinaties.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'rijksoverheid.nl', 'volkskrant.nl', 'europadecentraal.nl', 'amnesty.nl', 'decorrespondent.nl', 'europa-nu.nl', 'socialevraagstukken.nl', 'nd.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'schreeuwomleven.nl', 'telegraaf.nl', 'telegraaf.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'urgenda.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'milieudefensie.nl', 'climategate.nl', 'clo.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nrc.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nl.wikipedia.org', 'houvanarnhem.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'volkskrant.nl', 'ggdreisvaccinaties.nl', 'mens-en-gezondheid.infonu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'rijksoverheid.nl', 'volkskrant.nl', 'europadecentraal.nl', 'amnesty.nl', 'decorrespondent.nl', 'jalta.nl', 'nd.nl', 'europa-nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'gezondheidsplein.nl', 'trouw.nl', 'fiom.nl', 'schreeuwomleven.nl', 'telegraaf.nl', 'telegraaf.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'urgenda.nl', 'ec.europa.eu', 'klimaat.be', 'hier.nu', 'milieudefensie.nl', 'clo.nl', 'climategate.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nrc.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nl.wikipedia.org', 'houvanarnhem.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'rtlnieuws.nl', 'umcutrecht.nl', 'scientias.nl', 'ggdreisvaccinaties.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'volkskrant.nl', 'parool.nl', 'europa-nu.nl', 'jalta.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'gezondheidsplein.nl', 'trouw.nl', 'telegraaf.nl', 'telegraaf.nl', 'fiom.nl', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'urgenda.nl', 'ec.europa.eu', 'milieudefensie.nl', 'clo.nl', 'klimaat.be', 'hier.nu', 'climategate.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'nl.wikipedia.org', 'trouw.nl', 'nrc.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'rtlnieuws.nl', 'scientias.nl', 'umcutrecht.nl', 'nrc.nl', 'larsvanhemmen.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'volkskrant.nl', 'volkskrant.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'dagelijksestandaard.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'gezondheidsplein.nl', 'trouw.nl', 'fiom.nl', 'telegraaf.nl', 'schreeuwomleven.nl', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'urgenda.nl', 'clo.nl', 'milieudefensie.nl', 'klimaat.be', 'hier.nu', 'knaw.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'rtlnieuws.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'volkskrant.nl', 'volkskrant.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'jalta.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'gezondheidsplein.nl', 'trouw.nl', 'telegraaf.nl', 'fiom.nl', 'schreeuwomleven.nl', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'urgenda.nl', 'clo.nl', 'klimaat.be', 'milieudefensie.nl', 'hier.nu', 'knaw.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'scientias.nl', 'thuisvaccinatie.nl', 'rtlnieuws.nl', 'dekennisvannu.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'volkskrant.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'jalta.nl', 'dagelijksestandaard.nl']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'trouw.nl', 'telegraaf.nl', 'fiom.nl', 'ad.nl', 'schreeuwomleven.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ec.europa.eu', 'klimaat.be', 'urgenda.nl', 'knaw.nl', 'hier.nu', 'clo.nl', 'lne.be']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nrc.nl', 'nu.nl', 'rtlnieuws.nl', 'eenvandaag.avrotros.nl', 'nos.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'eur-lex.europa.eu', 'eur-lex.europa.eu', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'telegraaf.nl', 'fiom.nl', 'schreeuwomleven.nl', 'gezondheidsnet.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'urgenda.nl', 'ec.europa.eu', 'clo.nl', 'klimaat.be', 'milieudefensie.nl', 'knaw.nl', 'hier.nu']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nrc.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'joop.bnnvara.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'rtlnieuws.nl', 'larsvanhemmen.nl', 'ggdreisvaccinaties.nl', 'umcutrecht.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'volkskrant.nl', 'volkskrant.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'urgenda.nl', 'ec.europa.eu', 'clo.nl', 'milieudefensie.nl', 'klimaat.be', 'knaw.nl', 'hier.nu']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'rtlnieuws.nl', 'larsvanhemmen.nl', 'umcutrecht.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'volkskrant.nl', 'volkskrant.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'telegraaf.nl', 'schreeuwomleven.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'clo.nl', 'urgenda.nl', 'ec.europa.eu', 'klimaat.be', 'milieudefensie.nl', 'knaw.nl', 'hier.nu']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'ggdreisvaccinaties.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'volkskrant.nl', 'volkskrant.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'eur-lex.europa.eu', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'clo.nl', 'urgenda.nl', 'ec.europa.eu', 'klimaat.be', 'milieudefensie.nl', 'knaw.nl', 'climategate.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'ggdreisvaccinaties.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'trouw.nl', 'telegraaf.nl', 'telegraaf.nl', 'fiom.nl', 'sense.info']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'hier.nu', 'ec.europa.eu', 'rijksoverheid.nl', 'klimaat.be', 'climategate.nl', 'climategate.nl', 'energievergelijk.nl', 'urgenda.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nu.nl', 'joop.bnnvara.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'volkskrant.nl', 'mens-en-gezondheid.infonu.nl', 'umcutrecht.nl', 'laatjevaccineren.be']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'eur-lex.europa.eu', 'eur-lex.europa.eu', 'decorrespondent.nl', 'volkskrant.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'telegraaf.nl', 'telegraaf.nl', 'fiom.nl', 'schreeuwomleven.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ec.europa.eu', 'knaw.nl', 'clo.nl', 'urgenda.nl', 'milieudefensie.nl', 'nl.wikipedia.org', 'michielhaas.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nu.nl', 'nrc.nl', 'nos.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'dekennisvannu.nl', 'mens-en-gezondheid.infonu.nl', 'nieuwetijds-kindercoach.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'decorrespondent.nl', 'volkskrant.nl', 'volkskrant.nl', 'europadecentraal.nl', 'jalta.nl', 'eur-lex.europa.eu', 'www2.openvld.be']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'eenvandaag.avrotros.nl', 'nu.nl', 'nrc.nl', 'nos.nl', 'joop.bnnvara.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'dekennisvannu.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'klimaat.be', 'ec.europa.eu', 'urgenda.nl', 'milieudefensie.nl', 'knaw.nl', 'hier.nu', 'clo.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'nos.nl', 'nrc.nl', 'rtvoost.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'ggdreisvaccinaties.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'decorrespondent.nl', 'amnesty.nl', 'volkskrant.nl', 'volkskrant.nl', 'europadecentraal.nl', 'jalta.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'klimaat.be', 'ec.europa.eu', 'urgenda.nl', 'milieudefensie.nl', 'hier.nu', 'knaw.nl', 'clo.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'nos.nl', 'rtvoost.nl', 'omroepbrabant.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'volkskrant.nl', 'rivm.nl']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'hier.nu', 'rijksoverheid.nl', 'ec.europa.eu', 'klimaat.be', 'ce.nl', 'climategate.nl', 'climategate.nl', 'energievergelijk.nl', 'urgenda.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'nos.nl', 'omroepbrabant.nl']</t>
+  </si>
+  <si>
+    <t>['wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'mens-en-gezondheid.infonu.nl', 'volkskrant.nl', 'umcutrecht.nl', 'laatjevaccineren.be']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'decorrespondent.nl', 'europadecentraal.nl', 'volkskrant.nl', 'jalta.nl', 'eur-lex.europa.eu', 'europarl.europa.eu']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'trouw.nl', 'fiom.nl', 'telegraaf.nl', 'ad.nl', 'schreeuwomleven.nl']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'schreeuwomleven.nl', 'sense.info']</t>
+  </si>
+  <si>
+    <t>['bloemenhove.nl', 'thuisarts.nl', 'trouw.nl', 'gezondheidsplein.nl', 'fiom.nl', 'telegraaf.nl', 'schreeuwomleven.nl', 'sense.info', 'ad.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'ce.nl', 'ec.europa.eu', 'urgenda.nl', 'clo.nl', 'milieudefensie.nl', 'klimaat.be', 'hier.nu', 'climategate.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'klimaat.be', 'clo.nl', 'ec.europa.eu', 'urgenda.nl', 'milieudefensie.nl', 'hier.nu', 'knaw.nl']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'clo.nl', 'klimaat.be', 'ec.europa.eu', 'urgenda.nl', 'milieudefensie.nl', 'knaw.nl', 'hier.nu']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'clo.nl', 'ec.europa.eu', 'klimaat.be', 'urgenda.nl', 'milieudefensie.nl', 'knaw.nl', 'hier.nu']</t>
+  </si>
+  <si>
+    <t>['rijksoverheid.nl', 'wur.nl', 'clo.nl', 'ec.europa.eu', 'urgenda.nl', 'klimaat.be', 'hier.nu', 'milieudefensie.nl', 'knaw.nl']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'rijksoverheid.nl', 'hier.nu', 'Delftce.nl', 'climategate.nl', 'klimaat.be', 'energievergelijk.nl', 'knaw.nl', 'urgenda.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'eenvandaag.avrotros.nl', 'nu.nl', 'nrc.nl', 'nos.nl', 'nos.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'eenvandaag.avrotros.nl', 'nos.nl', 'nu.nl', 'nrc.nl', 'joop.bnnvara.nl', 'omroepbrabant.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'nrc.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nos.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nos.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nos.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nrc.nl', 'nos.nl']</t>
+  </si>
+  <si>
+    <t>['ad.nl', 'volkskrant.nl', 'trouw.nl', 'nrc.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nos.nl', 'nu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'stichtingvaccinvrij.nl', 'umcutrecht.nl', 'thuisvaccinatie.nl', 'volkskrant.nl', 'scientias.nl', 'dekennisvannu.nl', 'nrc.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'nvkp.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'volkskrant.nl', 'umcutrecht.nl', 'mens-en-gezondheid.infonu.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'wanttoknow.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'rtlnieuws.nl', 'mens-en-gezondheid.infonu.nl', 'larsvanhemmen.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'rtlnieuws.nl/rtlnieuws.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['rijksvaccinatieprogramma.nl', 'wanttoknow.nl', 'nvkp.nl', 'stichtingvaccinvrij.nl', 'scientias.nl', 'thuisvaccinatie.nl', 'rtlnieuws.nl/rtlnieuws.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['Rijksvaccinatieprogramma.nl', 'Wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'dekennisvannu.nl', 'volkskrant.nl']</t>
+  </si>
+  <si>
+    <t>['Rijksvaccinatieprogramma.nl', 'stichtingvaccinvrij.nl', 'Wanttoknow.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'volkskrant.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['Rijksvaccinatieprogramma.nl', 'stichtingvaccinvrij.nl', 'Wanttoknow.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'dekennisvannu.nl', 'ggdreisvaccinaties.nl']</t>
+  </si>
+  <si>
+    <t>['Rijksvaccinatieprogramma.nl', 'stichtingvaccinvrij.nl', 'Wanttoknow.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'ggdreisvaccinaties.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['Rijksvaccinatieprogramma.nl', 'Wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'ggdreisvaccinaties.nl', 'rivm.nl']</t>
+  </si>
+  <si>
+    <t>['Rijksvaccinatieprogramma.nl', 'Wanttoknow.nl', 'stichtingvaccinvrij.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'laatjevaccineren.be', 'mens-en-gezondheid.infonu.nl', 'volkskrant.nl', 'umcutrecht.nl']</t>
+  </si>
+  <si>
+    <t>['Rijksvaccinatieprogramma.nl', 'stichtingvaccinvrij.nl', 'wanttoknow.nl', 'nvkp.nl', 'thuisvaccinatie.nl', 'scientias.nl', 'umcutrecht.nl', 'nieuwetijds-kindercoach.nl', 'ggdreisvaccinaties.nl', 'dekennisvannu.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'politie.nl', 'rijksoverheid.nl', 'volkskrant.nl', 'europadecentraal.nl', 'amnesty.nl', 'decorrespondent.nl', 'nd.nl', 'europa-nu.nl', 'jalta.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'volkskrant.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'jalta.nl', 'ad.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'amnesty.nl', 'europadecentraal.nl', 'volkskrant.nl', 'decorrespondent.nl', 'decorrespondent.nl', 'dagelijksestandaard.nl', 'jalta.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'europadecentraal.nl', 'volkskrant.nl', 'volkskrant.nl', 'jalta.nl', 'socialevraagstukken.nl']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'volkskrant.nl', 'decorrespondent.nl', 'europadecentraal.nl', 'europadecentraal.nl', 'europa-nu.nl', 'jalta.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'volkskrant.nl', 'decorrespondent.nl', 'europadecentraal.nl', 'europadecentraal.nl', 'elsevierweekblad.nl', 'jalta.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'volkskrant.nl', 'decorrespondent.nl', 'europadecentraal.nl', 'europadecentraal.nl', 'jalta.nl', 'elsevierweekblad.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'europadecentraal.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'volkskrant.nl', 'volkskrant.nl', 'ind.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'volkskrant.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'europadecentraal.nl', 'jalta.nl', 'elsevierweekblad.nl', 'eur-lex.europa.eu']</t>
   </si>
 </sst>
 </file>
@@ -673,15 +937,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="172.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="195.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="167.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -698,602 +970,1004 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="G27" t="s">
-        <v>22</v>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
